--- a/or-base.xlsx
+++ b/or-base.xlsx
@@ -5756,7 +5756,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D6"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6332,10 +6332,10 @@
   <dimension ref="A1:F870"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A426" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D431" activeCellId="1" sqref="D2:D6 D431"/>
+      <selection pane="topLeft" activeCell="D431" activeCellId="0" sqref="D431"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">

--- a/or-base.xlsx
+++ b/or-base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="precios-julio" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1662">
   <si>
-    <t xml:space="preserve">ORLAN ROBER</t>
+    <t xml:space="preserve">OR</t>
   </si>
   <si>
     <t xml:space="preserve">COD</t>
@@ -5072,13 +5072,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;$ &quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="&quot;$ &quot;#,##0"/>
-    <numFmt numFmtId="168" formatCode="#,##0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$ &quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -5121,14 +5120,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -5136,6 +5127,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -5399,11 +5398,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5411,19 +5418,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5439,19 +5438,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5459,7 +5458,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5467,7 +5466,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5475,27 +5474,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5503,7 +5502,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5511,15 +5510,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5527,51 +5526,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5583,11 +5582,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5595,7 +5594,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5603,11 +5602,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5619,23 +5618,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5655,7 +5654,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5667,11 +5666,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5755,14 +5754,14 @@
   </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.61"/>
   </cols>
@@ -5781,533 +5780,533 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7" t="n">
         <v>17211.568</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="F3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7" t="n">
         <v>17211.568</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="F4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="7" t="n">
         <v>31964.46</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="F5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="7" t="n">
         <v>33235.18</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="F6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="7" t="n">
         <v>37268.044</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="7" t="n">
         <v>24327.6</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="7" t="n">
         <v>27125.692</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="7" t="n">
         <v>30025.776</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="7" t="n">
         <v>33235.18</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="7" t="n">
         <v>11631.268</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="7" t="n">
         <v>11631.268</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="7" t="n">
         <v>25764.684</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="7" t="n">
         <v>28565.284</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="7" t="n">
         <v>17211.568</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="7" t="n">
         <v>17211.568</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="7" t="n">
         <v>31964.46</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="K18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="7" t="n">
         <v>33235.18</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="7" t="n">
         <v>37268.044</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="7" t="n">
         <v>24327.6</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="7" t="n">
         <v>27125.692</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="7" t="n">
         <v>30025.776</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="7" t="n">
         <v>33235.18</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="7" t="n">
         <v>11631.268</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="7" t="n">
         <v>11631.268</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C27" s="7" t="n">
         <v>25764.684</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="7" t="n">
         <v>28565.284</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="7" t="n">
         <v>19111.796</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="7" t="n">
         <v>31225.436</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="7" t="n">
         <v>40097.068</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="7" t="n">
         <v>32687.6</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="7" t="n">
         <v>35655.4</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="7" t="n">
         <v>69456.552</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="7" t="n">
         <v>72200.304</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="F35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="8" t="n">
+      <c r="C36" s="7" t="n">
         <v>72200.304</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="7" t="n">
         <v>52421.38</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="8" t="n">
+      <c r="C38" s="7" t="n">
         <v>43146.796</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="8" t="n">
+      <c r="C39" s="7" t="n">
         <v>32687.6</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="8" t="n">
+      <c r="C40" s="7" t="n">
         <v>5129.696</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="8" t="n">
+      <c r="C41" s="7" t="n">
         <v>5818.56</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="8" t="n">
+      <c r="C42" s="7" t="n">
         <v>8523.856</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6331,11 +6330,14 @@
   </sheetPr>
   <dimension ref="A1:F870"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A426" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D431" activeCellId="0" sqref="D431"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.77"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
